--- a/biology/Botanique/Myrica/Myrica.xlsx
+++ b/biology/Botanique/Myrica/Myrica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Myrica est un genre végétal qui comprend trois espèces de petits arbres et d'arbustes de la famille des Myricaceae, ordre des Fagales.
 Le plus connu de ses représentants est Myrica gale, appelée « myrique baumier », « myrte des marais », ou encore en Amérique du Nord francophone « piment royal » et « bois-sent-bon ». 
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les buissons de piment royal atteignent généralement 1 à 2 m de hauteur et 1 m de diamètre. Les feuilles, insérées en spirale le long des rameaux, sont simples, longues de 2 à 5 cm, de forme lancéolée retournée (la base de la feuille est effilée et le bout élargi) ; le bord du limbe est ridé ou finement denté. Les fleurs sont des chatons, portés séparément par des plants mâles ou femelles : l'espèce est dioïque. Le fruit est une petite polydrupe. Le feuillage dégage une senteur agréablement résineuse, qui peut aussi rappeler celle des peupliers baumiers.
 </t>
@@ -544,7 +558,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre possède une vaste aire de répartition comprenant l'Afrique, l'Asie, l'Europe, l'Amérique du Nord et l'Amérique du Sud mais excluant l'Australasie. 
 Le piment royal est indigène en Europe septentrionale et occidentale et en Amérique du Nord. Il est spécifique des sols acides et mouilleux, notamment des tourbières et des bas-marais tourbeux. 
@@ -577,7 +593,9 @@
           <t>Usages traditionnels</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le feuillage odorant est un répulsif naturel et traditionnel, utilisé par les campeurs pour éloigner les insectes piqueurs.
 Les rameaux entrent dans la confection traditionnelle des bouquets de mariage royaux. La plante est utilisée aussi en parfumerie et comme épice.
@@ -609,13 +627,15 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Myrica gale L.
 Myrica gale subsp. gale
 Myrica gale subsp. tomentosa (C.DC.) E. Murray (synonymes : Myrica gale var. tomentosa DC. et Myrica tomentosa (DC.) Aschers. &amp; Graebn.)
 Myrica hartwegii S. Wats.
-Myrica ujhanovii Byalt &amp; Firsov[1]
+Myrica ujhanovii Byalt &amp; Firsov
 Beaucoup d'espèces (environ quatre-vingts) ont été reclassées dans d'autres genres, parmi lesquelles :
 Myrica californica (= Myrica heterophylla) renommée en Morella californica
 Myrica cerifera, l'Arbre à suif ou cirier, en Morella cerifera
@@ -625,7 +645,7 @@
 Myrica nagi en Nageia nagi
 Myrica pensylvanica en Morella pensylvanica
 Myrica pubescens en Morella pubescens
-Myrica rubra en Morella rubra[1]</t>
+Myrica rubra en Morella rubra</t>
         </is>
       </c>
     </row>
